--- a/public/assets/template/category-template.xlsx
+++ b/public/assets/template/category-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\tokusatsu\public\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\mooc\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B441176-1848-481E-88D8-4B8DF5CB3164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD968B-7C76-4041-BAE7-0F0CB72D4AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -34,39 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Kamen Rider</t>
-  </si>
-  <si>
-    <t>Era</t>
-  </si>
-  <si>
-    <t>Franchise</t>
-  </si>
-  <si>
-    <t>Img</t>
-  </si>
-  <si>
-    <t>Kamen Rider/Era Showa/0.1 IchigoNigoRiders (1).jpg</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Data Category</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Showa</t>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Pedagogical</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -465,75 +456,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86521A1-DC6B-4F40-AA0D-147BEF52CF9B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/assets/template/category-template.xlsx
+++ b/public/assets/template/category-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\mooc\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD968B-7C76-4041-BAE7-0F0CB72D4AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA280ED-1A42-47B1-B9C3-ED9AEAFA3C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Data Category</t>
   </si>
   <si>
-    <t>Operational</t>
-  </si>
-  <si>
     <t>Technical</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Software</t>
+  </si>
+  <si>
+    <t>Organisational</t>
   </si>
 </sst>
 </file>
@@ -459,13 +459,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B3:B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
